--- a/stocks/银行.xlsx
+++ b/stocks/银行.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="2" r:id="rId1"/>
-    <sheet name="资本充足率" sheetId="3" r:id="rId2"/>
-    <sheet name="银行" sheetId="1" r:id="rId3"/>
-    <sheet name="贷款质量" sheetId="5" r:id="rId4"/>
+    <sheet name="银行" sheetId="1" r:id="rId2"/>
+    <sheet name="资产减值准备" sheetId="7" r:id="rId3"/>
+    <sheet name="贷款减值准备" sheetId="5" r:id="rId4"/>
     <sheet name="兴业业务构成" sheetId="4" r:id="rId5"/>
-    <sheet name="兴业风险管理" sheetId="6" r:id="rId6"/>
+    <sheet name="监管指标" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>兴业银行</t>
   </si>
@@ -121,31 +121,159 @@
     <t>兴业</t>
   </si>
   <si>
-    <t>正常</t>
+    <t>兴业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关注</t>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不良</t>
+    <t>招行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关注加不良</t>
+    <t>减值准备余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款损失准备余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计提贷款损失准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨备覆盖率(问题类)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注加不良(问题类)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期内核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期核销率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期计提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减值准备率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款损失准备期初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生17年问题类比率上升34BP,其中损失类和可疑类降低,关注类和次级类上升;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行17年问题贷款比率降低了75BP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减值准备期初余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生17年年报中未找到总的资产减值准备变动表;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生的减值准备最为激进;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,13 +297,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,15 +330,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -215,8 +347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2838450" y="733425"/>
-          <a:ext cx="1076325" cy="561975"/>
+          <a:off x="2914650" y="266700"/>
+          <a:ext cx="1228725" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -315,14 +447,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1476376</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -333,14 +465,12 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1476376" y="957263"/>
-          <a:ext cx="1362074" cy="57150"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm flipV="1">
+          <a:off x="1476376" y="519113"/>
+          <a:ext cx="1438274" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="diamond"/>
@@ -367,15 +497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -384,8 +514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="3171825"/>
-          <a:ext cx="2200275" cy="561975"/>
+          <a:off x="2057400" y="2390775"/>
+          <a:ext cx="2686050" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -427,13 +557,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1476376</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -445,13 +575,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476376" y="957263"/>
-          <a:ext cx="28574" cy="2495550"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+          <a:off x="1476376" y="871538"/>
+          <a:ext cx="581024" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="diamond"/>
@@ -536,15 +664,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -556,10 +684,10 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3705225" y="3452813"/>
-          <a:ext cx="962025" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+          <a:off x="4743450" y="2643188"/>
+          <a:ext cx="485775" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -819,15 +947,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -839,13 +967,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3914775" y="557213"/>
-          <a:ext cx="2886075" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+          <a:off x="4143375" y="509588"/>
+          <a:ext cx="3524250" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="diamond"/>
@@ -872,9 +998,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -892,13 +1018,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="1014413"/>
-          <a:ext cx="1466850" cy="1338263"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+          <a:off x="4143375" y="519113"/>
+          <a:ext cx="1876425" cy="1604963"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="diamond"/>
@@ -925,9 +1049,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -945,13 +1069,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="1014413"/>
-          <a:ext cx="1047750" cy="2095500"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+          <a:off x="4143375" y="519113"/>
+          <a:ext cx="1457325" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="diamond"/>
@@ -978,15 +1100,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -998,13 +1120,11 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="1014413"/>
-          <a:ext cx="2466975" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+          <a:off x="4143375" y="519113"/>
+          <a:ext cx="3028950" cy="738187"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="diamond"/>
@@ -9813,15 +9933,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9829,102 +9950,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>34555</v>
-      </c>
-      <c r="C2">
-        <v>4583</v>
-      </c>
-      <c r="D2">
-        <v>3259</v>
-      </c>
-      <c r="E2">
-        <v>7.76</v>
-      </c>
-      <c r="F2">
-        <v>259</v>
-      </c>
-      <c r="G2">
-        <v>1064</v>
-      </c>
-      <c r="I2">
-        <f>(D2-E2)/B2</f>
-        <v>9.4088843872087963E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
-    <col min="20" max="20" width="57.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="20" max="20" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
         <v>18</v>
@@ -9984,7 +10037,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="2:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10044,7 +10097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -10060,7 +10113,7 @@
       <c r="P3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -10076,7 +10129,7 @@
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -10092,7 +10145,7 @@
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -10108,7 +10161,7 @@
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -10124,7 +10177,7 @@
       <c r="P7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -10140,7 +10193,7 @@
       <c r="P8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -10156,7 +10209,7 @@
       <c r="P9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -10172,7 +10225,7 @@
       <c r="P10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -10188,7 +10241,7 @@
       <c r="P11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -10204,7 +10257,7 @@
       <c r="P12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -10220,7 +10273,7 @@
       <c r="P13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -10236,7 +10289,7 @@
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -10252,7 +10305,7 @@
       <c r="P15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -10268,7 +10321,7 @@
       <c r="P16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -10284,7 +10337,7 @@
       <c r="P17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -10300,7 +10353,7 @@
       <c r="P18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -10316,7 +10369,7 @@
       <c r="P19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -10332,7 +10385,7 @@
       <c r="P20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -10348,7 +10401,7 @@
       <c r="P21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -10364,7 +10417,7 @@
       <c r="P22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -10380,7 +10433,7 @@
       <c r="P23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -10396,7 +10449,7 @@
       <c r="P24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -10412,7 +10465,7 @@
       <c r="P25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -10428,7 +10481,7 @@
       <c r="P26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -10444,7 +10497,7 @@
       <c r="P27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -10460,7 +10513,7 @@
       <c r="P28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -10476,7 +10529,7 @@
       <c r="P29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -10492,7 +10545,7 @@
       <c r="P30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -10508,7 +10561,7 @@
       <c r="P31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -10524,7 +10577,7 @@
       <c r="P32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -10541,6 +10594,261 @@
       <c r="R33" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="e">
+        <f t="shared" ref="H2:H10" si="0">G2/C2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>60858</v>
+      </c>
+      <c r="D3">
+        <v>711</v>
+      </c>
+      <c r="E3">
+        <v>512</v>
+      </c>
+      <c r="F3">
+        <v>293</v>
+      </c>
+      <c r="G3">
+        <v>934</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5347201682605409E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>62976</v>
+      </c>
+      <c r="D4">
+        <v>1208</v>
+      </c>
+      <c r="E4">
+        <v>668</v>
+      </c>
+      <c r="F4">
+        <v>254</v>
+      </c>
+      <c r="G4">
+        <v>1599</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5390625E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>59423</v>
+      </c>
+      <c r="D5">
+        <v>896</v>
+      </c>
+      <c r="E5">
+        <v>718</v>
+      </c>
+      <c r="F5">
+        <v>368</v>
+      </c>
+      <c r="G5">
+        <v>1208</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0328828904632886E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>59020</v>
+      </c>
+      <c r="D6">
+        <v>197</v>
+      </c>
+      <c r="G6">
+        <v>246</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1680786174178247E-3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>58958</v>
+      </c>
+      <c r="D7">
+        <v>142</v>
+      </c>
+      <c r="G7">
+        <v>197</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3413616472743311E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>23562</v>
+      </c>
+      <c r="D9">
+        <v>292</v>
+      </c>
+      <c r="E9">
+        <v>138</v>
+      </c>
+      <c r="F9">
+        <v>78</v>
+      </c>
+      <c r="G9">
+        <v>346</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4684661743485273E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>20206</v>
+      </c>
+      <c r="D10">
+        <v>257</v>
+      </c>
+      <c r="E10">
+        <v>89</v>
+      </c>
+      <c r="F10">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>292</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4451153122834801E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10548,195 +10856,460 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>2016</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>19914</v>
-      </c>
-      <c r="D2">
-        <v>539</v>
-      </c>
-      <c r="E2">
-        <v>344</v>
-      </c>
-      <c r="F2">
-        <f>D2+E2</f>
-        <v>883</v>
-      </c>
-      <c r="G2" s="1">
-        <f>F2/(F2+C2)</f>
-        <v>4.2458046833677932E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2015</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
+        <v>20798</v>
+      </c>
+      <c r="D3">
+        <v>19914</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>884</v>
+      </c>
+      <c r="F3">
+        <v>545</v>
+      </c>
+      <c r="G3">
+        <v>463</v>
+      </c>
+      <c r="H3">
+        <v>288</v>
+      </c>
+      <c r="I3">
+        <v>724</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J16" si="0">E3/C3</f>
+        <v>4.2504086931435717E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K16" si="1">H3/C3</f>
+        <v>1.3847485335128378E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L16" si="2">I3/E3</f>
+        <v>0.8190045248868778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>17794</v>
+      </c>
+      <c r="D4">
         <v>17116</v>
       </c>
-      <c r="D3">
-        <v>417</v>
-      </c>
-      <c r="E3">
-        <v>259</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F14" si="0">D3+E3</f>
-        <v>676</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G14" si="1">F3/(F3+C3)</f>
-        <v>3.7994604316546762E-2</v>
+      <c r="E4">
+        <f t="shared" ref="E4:E16" si="3">C4-D4</f>
+        <v>678</v>
+      </c>
+      <c r="I4">
+        <v>545</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8102731257727326E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.80383480825958697</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>35650</v>
+      </c>
+      <c r="D5">
+        <v>34504</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1146</v>
+      </c>
+      <c r="F5">
+        <v>1100</v>
+      </c>
+      <c r="G5">
+        <v>644</v>
+      </c>
+      <c r="H5">
+        <v>242</v>
+      </c>
+      <c r="I5">
+        <v>1466</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
+        <v>3.2145862552594669E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7882187938288919E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2792321116928447</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>32616</v>
+      </c>
+      <c r="D6">
+        <v>31324</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>1292</v>
+      </c>
+      <c r="G6">
+        <v>671</v>
+      </c>
+      <c r="H6">
+        <v>359</v>
+      </c>
+      <c r="I6">
+        <v>1100</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9612460142261469E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1006867794947264E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.85139318885448911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>28043</v>
+      </c>
+      <c r="D7">
+        <v>26424</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1619</v>
+      </c>
+      <c r="F7">
+        <v>643</v>
+      </c>
+      <c r="G7">
+        <v>341</v>
+      </c>
+      <c r="H7">
+        <v>184</v>
+      </c>
+      <c r="I7">
+        <v>745</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7732767535570377E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5613522091074418E-3</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.46016059295861644</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>24615</v>
+      </c>
+      <c r="D8">
+        <v>23278</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>1337</v>
+      </c>
+      <c r="F8">
+        <v>504</v>
+      </c>
+      <c r="G8">
+        <v>431</v>
+      </c>
+      <c r="H8">
+        <v>175</v>
+      </c>
+      <c r="I8">
+        <v>643</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4316473694901481E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1094860857200889E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.48092744951383692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>12166</v>
+      </c>
+      <c r="D10">
+        <v>11451</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>715</v>
+      </c>
+      <c r="F10">
+        <v>272</v>
+      </c>
+      <c r="G10">
+        <v>134</v>
+      </c>
+      <c r="H10">
+        <v>78</v>
+      </c>
+      <c r="I10">
+        <v>322</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8770343580470161E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4113102087785629E-3</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45034965034965035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="e">
+      <c r="J11" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L11" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L12" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L13" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L14" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L15" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="e">
-        <f t="shared" si="1"/>
+      <c r="L16" s="4" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10746,12 +11319,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10760,14 +11334,74 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>34555</v>
+      </c>
+      <c r="C2">
+        <v>4583</v>
+      </c>
+      <c r="D2">
+        <v>3259</v>
+      </c>
+      <c r="E2">
+        <v>7.76</v>
+      </c>
+      <c r="F2">
+        <v>259</v>
+      </c>
+      <c r="G2">
+        <v>1064</v>
+      </c>
+      <c r="I2">
+        <f>(D2-E2)/B2</f>
+        <v>9.4088843872087963E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stocks/银行.xlsx
+++ b/stocks/银行.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="2" r:id="rId1"/>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>民生17年年报中未找到总的资产减值准备变动表;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Memo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,12 +233,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>民生的减值准备最为激进;</t>
+    <t>华夏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华夏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>民生17年年报中未找到总的资产减值准备变动表;</t>
+  </si>
+  <si>
+    <t>民生的减值准备最为激进;</t>
   </si>
 </sst>
 </file>
@@ -250,19 +248,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,7 +269,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,7 +302,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9933,13 +9931,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9956,28 +9954,28 @@
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.125" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="15.25" customWidth="1"/>
-    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="20" max="20" width="57.625" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:23" ht="40.5" customHeight="1">
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
         <v>18</v>
@@ -10037,7 +10035,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="2:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:23" ht="62.25" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10097,7 +10095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:23">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -10113,7 +10111,7 @@
       <c r="P3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:23">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -10129,7 +10127,7 @@
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:23">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -10145,7 +10143,7 @@
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:23">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -10161,7 +10159,7 @@
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:23">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -10177,7 +10175,7 @@
       <c r="P7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:23">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -10193,7 +10191,7 @@
       <c r="P8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:23">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -10209,7 +10207,7 @@
       <c r="P9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:23">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -10225,7 +10223,7 @@
       <c r="P10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:23">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -10241,7 +10239,7 @@
       <c r="P11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:23">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -10257,7 +10255,7 @@
       <c r="P12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:23">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -10273,7 +10271,7 @@
       <c r="P13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:23">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -10289,7 +10287,7 @@
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:23">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -10305,7 +10303,7 @@
       <c r="P15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:23">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -10321,7 +10319,7 @@
       <c r="P16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:18">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -10337,7 +10335,7 @@
       <c r="P17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:18">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -10353,7 +10351,7 @@
       <c r="P18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:18">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -10369,7 +10367,7 @@
       <c r="P19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:18">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -10385,7 +10383,7 @@
       <c r="P20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:18">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -10401,7 +10399,7 @@
       <c r="P21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:18">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -10417,7 +10415,7 @@
       <c r="P22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:18">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -10433,7 +10431,7 @@
       <c r="P23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:18">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -10449,7 +10447,7 @@
       <c r="P24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:18">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -10465,7 +10463,7 @@
       <c r="P25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:18">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -10481,7 +10479,7 @@
       <c r="P26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:18">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -10497,7 +10495,7 @@
       <c r="P27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:18">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -10513,7 +10511,7 @@
       <c r="P28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:18">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -10529,7 +10527,7 @@
       <c r="P29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:18">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -10545,7 +10543,7 @@
       <c r="P30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:18">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -10561,7 +10559,7 @@
       <c r="P31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:18">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -10577,7 +10575,7 @@
       <c r="P32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:18">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -10602,19 +10600,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
@@ -10633,219 +10635,316 @@
       <c r="H1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2017</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1" t="e">
         <f t="shared" ref="H2:H10" si="0">G2/C2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2016</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3">
-        <v>60858</v>
-      </c>
-      <c r="D3">
-        <v>711</v>
-      </c>
-      <c r="E3">
-        <v>512</v>
-      </c>
-      <c r="F3">
-        <v>293</v>
-      </c>
-      <c r="G3">
-        <v>934</v>
+      <c r="C3" s="3">
+        <v>6085800</v>
+      </c>
+      <c r="D3" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>51200</v>
+      </c>
+      <c r="F3" s="3">
+        <v>29300</v>
+      </c>
+      <c r="G3" s="3">
+        <v>93400</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
         <v>1.5347201682605409E-2</v>
       </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2017</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4">
-        <v>62976</v>
-      </c>
-      <c r="D4">
-        <v>1208</v>
-      </c>
-      <c r="E4">
-        <v>668</v>
-      </c>
-      <c r="F4">
-        <v>254</v>
-      </c>
-      <c r="G4">
-        <v>1599</v>
+      <c r="C4" s="3">
+        <v>6297600</v>
+      </c>
+      <c r="D4" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E4" s="3">
+        <v>66800</v>
+      </c>
+      <c r="F4" s="3">
+        <v>25400</v>
+      </c>
+      <c r="G4" s="3">
+        <v>159900</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>2.5390625E-2</v>
       </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2016</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
-        <v>59423</v>
-      </c>
-      <c r="D5">
-        <v>896</v>
-      </c>
-      <c r="E5">
-        <v>718</v>
-      </c>
-      <c r="F5">
-        <v>368</v>
-      </c>
-      <c r="G5">
-        <v>1208</v>
+      <c r="C5" s="3">
+        <v>5942300</v>
+      </c>
+      <c r="D5" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E5" s="3">
+        <v>71800</v>
+      </c>
+      <c r="F5" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G5" s="3">
+        <v>120800</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>2.0328828904632886E-2</v>
       </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6">
-        <v>59020</v>
-      </c>
-      <c r="D6">
-        <v>197</v>
-      </c>
-      <c r="G6">
-        <v>246</v>
+      <c r="C6" s="3">
+        <v>5902000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>24600</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>4.1680786174178247E-3</v>
       </c>
-      <c r="I6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" t="s">
         <v>58</v>
       </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2016</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7">
-        <v>58958</v>
-      </c>
-      <c r="D7">
-        <v>142</v>
-      </c>
-      <c r="G7">
-        <v>197</v>
+      <c r="C7" s="3">
+        <v>5895800</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>19700</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>3.3413616472743311E-3</v>
       </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2017</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2016</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="C9">
-        <v>23562</v>
-      </c>
-      <c r="D9">
-        <v>292</v>
-      </c>
-      <c r="E9">
-        <v>138</v>
-      </c>
-      <c r="F9">
-        <v>78</v>
-      </c>
-      <c r="G9">
-        <v>346</v>
+      <c r="C9" s="3">
+        <v>2356200</v>
+      </c>
+      <c r="D9" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>34600</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>1.4684661743485273E-2</v>
       </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>2015</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C10">
-        <v>20206</v>
-      </c>
-      <c r="D10">
-        <v>257</v>
-      </c>
-      <c r="E10">
-        <v>89</v>
-      </c>
-      <c r="F10">
-        <v>52</v>
-      </c>
-      <c r="G10">
-        <v>292</v>
+      <c r="C10" s="3">
+        <v>2020600</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>29200</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>1.4451153122834801E-2</v>
       </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10856,19 +10955,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.75" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
@@ -10900,35 +11000,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="2" customFormat="1">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2016</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3">
-        <v>20798</v>
-      </c>
-      <c r="D3">
-        <v>19914</v>
-      </c>
-      <c r="E3">
-        <f>C3-D3</f>
-        <v>884</v>
-      </c>
-      <c r="F3">
-        <v>545</v>
-      </c>
-      <c r="G3">
-        <v>463</v>
-      </c>
-      <c r="H3">
-        <v>288</v>
-      </c>
-      <c r="I3">
-        <v>724</v>
+      <c r="C3" s="3">
+        <v>2079800</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1991400</v>
+      </c>
+      <c r="E3" s="3">
+        <v>88400</v>
+      </c>
+      <c r="F3" s="3">
+        <v>54500</v>
+      </c>
+      <c r="G3" s="3">
+        <v>46300</v>
+      </c>
+      <c r="H3" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I3" s="3">
+        <v>72400</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J16" si="0">E3/C3</f>
@@ -10943,25 +11050,27 @@
         <v>0.8190045248868778</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2015</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4">
-        <v>17794</v>
-      </c>
-      <c r="D4">
-        <v>17116</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E16" si="3">C4-D4</f>
-        <v>678</v>
-      </c>
-      <c r="I4">
-        <v>545</v>
+      <c r="C4" s="3">
+        <v>1779400</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1711600</v>
+      </c>
+      <c r="E4" s="3">
+        <v>67800</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>54500</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
@@ -10976,34 +11085,33 @@
         <v>0.80383480825958697</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2017</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
-        <v>35650</v>
-      </c>
-      <c r="D5">
-        <v>34504</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="3"/>
-        <v>1146</v>
-      </c>
-      <c r="F5">
-        <v>1100</v>
-      </c>
-      <c r="G5">
-        <v>644</v>
-      </c>
-      <c r="H5">
-        <v>242</v>
-      </c>
-      <c r="I5">
-        <v>1466</v>
+      <c r="C5" s="3">
+        <v>3565000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3450400</v>
+      </c>
+      <c r="E5" s="3">
+        <v>114600</v>
+      </c>
+      <c r="F5" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>64400</v>
+      </c>
+      <c r="H5" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I5" s="3">
+        <v>146600</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
@@ -11021,31 +11129,31 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6">
-        <v>32616</v>
-      </c>
-      <c r="D6">
-        <v>31324</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>1292</v>
-      </c>
-      <c r="G6">
-        <v>671</v>
-      </c>
-      <c r="H6">
-        <v>359</v>
-      </c>
-      <c r="I6">
-        <v>1100</v>
+      <c r="C6" s="3">
+        <v>3261600</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3132400</v>
+      </c>
+      <c r="E6" s="3">
+        <v>129200</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>67100</v>
+      </c>
+      <c r="H6" s="3">
+        <v>35900</v>
+      </c>
+      <c r="I6" s="3">
+        <v>110000</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
@@ -11060,34 +11168,33 @@
         <v>0.85139318885448911</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7">
-        <v>28043</v>
-      </c>
-      <c r="D7">
-        <v>26424</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>1619</v>
-      </c>
-      <c r="F7">
-        <v>643</v>
-      </c>
-      <c r="G7">
-        <v>341</v>
-      </c>
-      <c r="H7">
-        <v>184</v>
-      </c>
-      <c r="I7">
-        <v>745</v>
+      <c r="C7" s="3">
+        <v>2804300</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2642400</v>
+      </c>
+      <c r="E7" s="3">
+        <v>161900</v>
+      </c>
+      <c r="F7" s="3">
+        <v>64300</v>
+      </c>
+      <c r="G7" s="3">
+        <v>34100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I7" s="3">
+        <v>74500</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
@@ -11105,34 +11212,33 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C8">
-        <v>24615</v>
-      </c>
-      <c r="D8">
-        <v>23278</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>1337</v>
-      </c>
-      <c r="F8">
-        <v>504</v>
-      </c>
-      <c r="G8">
-        <v>431</v>
-      </c>
-      <c r="H8">
-        <v>175</v>
-      </c>
-      <c r="I8">
-        <v>643</v>
+      <c r="C8" s="3">
+        <v>2461500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2327800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>133700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>64300</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
@@ -11147,45 +11253,51 @@
         <v>0.48092744951383692</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10">
-        <v>12166</v>
-      </c>
-      <c r="D10">
-        <v>11451</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>715</v>
-      </c>
-      <c r="F10">
-        <v>272</v>
-      </c>
-      <c r="G10">
-        <v>134</v>
-      </c>
-      <c r="H10">
-        <v>78</v>
-      </c>
-      <c r="I10">
-        <v>322</v>
+        <v>57</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1216600</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1145100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>71500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>27200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>32200</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
@@ -11200,11 +11312,17 @@
         <v>0.45034965034965035</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E11">
-        <f t="shared" si="3"/>
+    <row r="11" spans="1:14">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f t="shared" ref="E4:E16" si="3">C11-D11</f>
         <v>0</v>
       </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11218,11 +11336,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E12">
+    <row r="12" spans="1:14">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11236,11 +11360,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E13">
+    <row r="13" spans="1:14">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11254,11 +11384,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E14">
+    <row r="14" spans="1:14">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11272,11 +11408,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E15">
+    <row r="15" spans="1:14">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11290,11 +11432,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E16">
+    <row r="16" spans="1:14">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -11307,6 +11455,87 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11323,7 +11552,7 @@
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11340,12 +11569,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
@@ -11368,7 +11597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11395,7 +11624,7 @@
         <v>9.4088843872087963E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>51</v>
       </c>

--- a/stocks/银行.xlsx
+++ b/stocks/银行.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="2" r:id="rId1"/>
@@ -248,19 +248,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,7 +269,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -302,7 +302,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1144,6 +1144,64 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277600" y="1476375"/>
+          <a:ext cx="685800" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>富国银行提高资金周转率</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9931,13 +9989,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9954,28 +10012,28 @@
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
-    <col min="20" max="20" width="57.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="20" max="20" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="40.5" customHeight="1">
+    <row r="1" spans="2:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
         <v>18</v>
@@ -10035,7 +10093,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="2:23" ht="62.25" customHeight="1">
+    <row r="2" spans="2:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10095,7 +10153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -10111,7 +10169,7 @@
       <c r="P3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -10127,7 +10185,7 @@
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -10143,7 +10201,7 @@
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -10159,7 +10217,7 @@
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -10175,7 +10233,7 @@
       <c r="P7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -10191,7 +10249,7 @@
       <c r="P8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -10207,7 +10265,7 @@
       <c r="P9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -10223,7 +10281,7 @@
       <c r="P10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -10239,7 +10297,7 @@
       <c r="P11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -10255,7 +10313,7 @@
       <c r="P12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -10271,7 +10329,7 @@
       <c r="P13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -10287,7 +10345,7 @@
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="2:23">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -10303,7 +10361,7 @@
       <c r="P15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -10319,7 +10377,7 @@
       <c r="P16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="4:18">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -10335,7 +10393,7 @@
       <c r="P17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="4:18">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -10351,7 +10409,7 @@
       <c r="P18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="4:18">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -10367,7 +10425,7 @@
       <c r="P19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="4:18">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -10383,7 +10441,7 @@
       <c r="P20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="4:18">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -10399,7 +10457,7 @@
       <c r="P21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="4:18">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -10415,7 +10473,7 @@
       <c r="P22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="4:18">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -10431,7 +10489,7 @@
       <c r="P23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="4:18">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -10447,7 +10505,7 @@
       <c r="P24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="4:18">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -10463,7 +10521,7 @@
       <c r="P25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="4:18">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -10479,7 +10537,7 @@
       <c r="P26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="4:18">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -10495,7 +10553,7 @@
       <c r="P27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="4:18">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -10511,7 +10569,7 @@
       <c r="P28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="4:18">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -10527,7 +10585,7 @@
       <c r="P29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="4:18">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -10543,7 +10601,7 @@
       <c r="P30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="4:18">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -10559,7 +10617,7 @@
       <c r="P31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="4:18">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -10575,7 +10633,7 @@
       <c r="P32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="4:18">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -10602,21 +10660,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="9" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="47.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="33.75" customHeight="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
@@ -10642,7 +10700,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -10662,7 +10720,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -10692,7 +10750,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -10722,7 +10780,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -10752,7 +10810,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -10784,7 +10842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -10810,7 +10868,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -10830,7 +10888,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -10860,7 +10918,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -10890,56 +10948,56 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -10961,14 +11019,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
@@ -11000,7 +11058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -11009,7 +11067,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -11050,7 +11108,7 @@
         <v>0.8190045248868778</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -11085,7 +11143,7 @@
         <v>0.80383480825958697</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -11129,7 +11187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -11168,7 +11226,7 @@
         <v>0.85139318885448911</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -11212,7 +11270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -11253,7 +11311,7 @@
         <v>0.48092744951383692</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -11271,7 +11329,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -11312,11 +11370,11 @@
         <v>0.45034965034965035</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <f t="shared" ref="E4:E16" si="3">C11-D11</f>
+        <f t="shared" ref="E11:E16" si="3">C11-D11</f>
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
@@ -11336,7 +11394,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -11360,7 +11418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
@@ -11384,7 +11442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -11408,7 +11466,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -11432,7 +11490,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
@@ -11456,7 +11514,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="3:9">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -11465,7 +11523,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="3:9">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -11474,7 +11532,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="3:9">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -11483,7 +11541,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="3:9">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11492,7 +11550,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -11501,7 +11559,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -11510,7 +11568,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="3:9">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -11519,7 +11577,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="3:9">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -11528,7 +11586,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="3:9">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -11552,7 +11610,7 @@
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11569,12 +11627,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
@@ -11597,7 +11655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11624,7 +11682,7 @@
         <v>9.4088843872087963E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>51</v>
       </c>

--- a/stocks/银行.xlsx
+++ b/stocks/银行.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\daydayup\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\daydayup\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="资产减值准备" sheetId="7" r:id="rId3"/>
     <sheet name="贷款减值准备" sheetId="5" r:id="rId4"/>
     <sheet name="兴业业务构成" sheetId="4" r:id="rId5"/>
-    <sheet name="监管指标" sheetId="3" r:id="rId6"/>
+    <sheet name="招行业务构成" sheetId="8" r:id="rId6"/>
+    <sheet name="监管指标" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>兴业银行</t>
   </si>
@@ -242,25 +243,34 @@
   <si>
     <t>民生的减值准备最为激进;</t>
   </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>年报阅读</t>
+  </si>
+  <si>
+    <t>目标是“金融科技银行”</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,7 +279,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -302,7 +312,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9989,13 +9999,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10008,32 +10018,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.125" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
-    <col min="16" max="16" width="15.25" customWidth="1"/>
-    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="20" max="20" width="57.625" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:23" ht="40.5" customHeight="1">
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
         <v>18</v>
@@ -10089,11 +10099,13 @@
       <c r="T1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="2:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:23" ht="62.25" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10153,7 +10165,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:23">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -10168,8 +10183,11 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="R3" s="3"/>
+      <c r="U3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:23">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -10185,7 +10203,7 @@
       <c r="P4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:23">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -10201,7 +10219,7 @@
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:23">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -10217,7 +10235,7 @@
       <c r="P6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:23">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -10233,7 +10251,7 @@
       <c r="P7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:23">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -10249,7 +10267,7 @@
       <c r="P8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:23">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -10265,7 +10283,7 @@
       <c r="P9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:23">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -10281,7 +10299,7 @@
       <c r="P10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:23">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -10297,7 +10315,7 @@
       <c r="P11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:23">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -10313,7 +10331,7 @@
       <c r="P12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:23">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -10329,7 +10347,7 @@
       <c r="P13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:23">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -10345,7 +10363,7 @@
       <c r="P14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:23">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -10361,7 +10379,7 @@
       <c r="P15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:23">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -10377,7 +10395,7 @@
       <c r="P16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:18">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -10393,7 +10411,7 @@
       <c r="P17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:18">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -10409,7 +10427,7 @@
       <c r="P18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:18">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -10425,7 +10443,7 @@
       <c r="P19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:18">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -10441,7 +10459,7 @@
       <c r="P20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:18">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -10457,7 +10475,7 @@
       <c r="P21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:18">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -10473,7 +10491,7 @@
       <c r="P22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:18">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -10489,7 +10507,7 @@
       <c r="P23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:18">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -10505,7 +10523,7 @@
       <c r="P24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:18">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -10521,7 +10539,7 @@
       <c r="P25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:18">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -10537,7 +10555,7 @@
       <c r="P26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:18">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -10553,7 +10571,7 @@
       <c r="P27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:18">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -10569,7 +10587,7 @@
       <c r="P28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:18">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -10585,7 +10603,7 @@
       <c r="P29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:18">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -10601,7 +10619,7 @@
       <c r="P30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:18">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -10617,7 +10635,7 @@
       <c r="P31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:18">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -10633,7 +10651,7 @@
       <c r="P32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:18">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -10664,17 +10682,17 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="9" max="11" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
@@ -10700,7 +10718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -10720,7 +10738,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -10750,7 +10768,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -10780,7 +10798,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -10810,7 +10828,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -10842,7 +10860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -10868,7 +10886,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -10888,7 +10906,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -10918,7 +10936,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -10948,56 +10966,56 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:7">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -11015,18 +11033,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.75" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
@@ -11058,7 +11076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="2" customFormat="1">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -11067,7 +11085,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -11108,7 +11126,7 @@
         <v>0.8190045248868778</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -11143,7 +11161,7 @@
         <v>0.80383480825958697</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -11187,7 +11205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -11226,7 +11244,7 @@
         <v>0.85139318885448911</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -11270,7 +11288,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -11311,7 +11329,7 @@
         <v>0.48092744951383692</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -11329,7 +11347,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -11370,7 +11388,7 @@
         <v>0.45034965034965035</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -11394,7 +11412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -11418,7 +11436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
@@ -11442,7 +11460,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
@@ -11466,7 +11484,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
@@ -11490,7 +11508,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
@@ -11514,7 +11532,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:9">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -11523,7 +11541,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:9">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -11532,7 +11550,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:9">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -11541,7 +11559,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:9">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -11550,7 +11568,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:9">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -11559,7 +11577,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:9">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -11568,7 +11586,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:9">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -11577,7 +11595,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:9">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -11586,7 +11604,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:9">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -11606,11 +11624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11621,18 +11639,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="43.5" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
@@ -11655,7 +11685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11682,7 +11712,7 @@
         <v>9.4088843872087963E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>51</v>
       </c>

--- a/stocks/银行.xlsx
+++ b/stocks/银行.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="2" r:id="rId1"/>
@@ -3316,7 +3316,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -3327,8 +3327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2762250" y="11725275"/>
-          <a:ext cx="1428750" cy="295275"/>
+          <a:off x="2744321" y="11725275"/>
+          <a:ext cx="1032061" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3388,8 +3388,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="818417" y="11872913"/>
-          <a:ext cx="1937971" cy="3006969"/>
+          <a:off x="815400" y="11872913"/>
+          <a:ext cx="1928921" cy="3006969"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3485,7 +3485,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>234764</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
@@ -3505,8 +3505,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3476625" y="10539413"/>
-          <a:ext cx="285749" cy="1185862"/>
+          <a:off x="3260352" y="10539413"/>
+          <a:ext cx="475128" cy="1185862"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3594,7 +3594,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
@@ -3614,8 +3614,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4191000" y="9444038"/>
-          <a:ext cx="1504950" cy="2428875"/>
+          <a:off x="3776382" y="9444038"/>
+          <a:ext cx="1879227" cy="2428875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4817,7 +4817,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
@@ -4837,8 +4837,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="11872913"/>
-          <a:ext cx="1514475" cy="1190625"/>
+          <a:off x="3776382" y="11872913"/>
+          <a:ext cx="1888752" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5614,7 +5614,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
@@ -5634,8 +5634,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4182208" y="11872913"/>
-          <a:ext cx="611066" cy="2153383"/>
+          <a:off x="3776382" y="11872913"/>
+          <a:ext cx="995774" cy="2153383"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5789,16 +5789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>543574</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>98955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>319455</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>20514</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>106239</xdr:rowOff>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5807,8 +5807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2751993" y="14689014"/>
-          <a:ext cx="896816" cy="276225"/>
+          <a:off x="1753809" y="15148455"/>
+          <a:ext cx="890781" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5849,14 +5849,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>210282</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>158627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319455</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>20882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>543574</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>46568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5867,9 +5867,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="818417" y="14827127"/>
-          <a:ext cx="1933576" cy="52755"/>
+        <a:xfrm>
+          <a:off x="815400" y="14879882"/>
+          <a:ext cx="938409" cy="406686"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5898,16 +5898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>474052</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261142</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>62796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>74001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>75467</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>64476</xdr:rowOff>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5916,8 +5916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4730994" y="14552001"/>
-          <a:ext cx="1425819" cy="371475"/>
+          <a:off x="3286730" y="14350296"/>
+          <a:ext cx="724976" cy="206145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5970,16 +5970,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>69239</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>474052</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>158627</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>165869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261142</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>46568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5991,8 +5991,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3648809" y="14737739"/>
-          <a:ext cx="1082185" cy="89388"/>
+          <a:off x="2644590" y="14453369"/>
+          <a:ext cx="642140" cy="833199"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6021,16 +6021,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>78399</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>189035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>287949</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>179510</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190458</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>54564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400007</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>45039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6039,8 +6039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943476" y="15619535"/>
-          <a:ext cx="1425819" cy="371475"/>
+          <a:off x="3216046" y="16056564"/>
+          <a:ext cx="1419785" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6079,16 +6079,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>158627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>78399</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>184273</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>46568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190458</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>49802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6100,8 +6100,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648809" y="14827127"/>
-          <a:ext cx="1294667" cy="978146"/>
+          <a:off x="2644590" y="15286568"/>
+          <a:ext cx="571456" cy="955734"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6130,16 +6130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36979</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>137272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>198905</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>99172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6148,8 +6148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486649" y="15668625"/>
-          <a:ext cx="4429126" cy="914400"/>
+          <a:off x="4272803" y="14805772"/>
+          <a:ext cx="4397749" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6244,16 +6244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>183174</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>189035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295233</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>22972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36979</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>54564</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6264,9 +6264,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5656386" y="15619535"/>
-          <a:ext cx="1812678" cy="506290"/>
+        <a:xfrm flipV="1">
+          <a:off x="3925939" y="15262972"/>
+          <a:ext cx="346864" cy="793592"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6295,16 +6295,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480732</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>119903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>110378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6313,8 +6313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10877550" y="17354550"/>
-          <a:ext cx="1428750" cy="371475"/>
+          <a:off x="8347261" y="16312403"/>
+          <a:ext cx="1415303" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6353,16 +6353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596153</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>115141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480732</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171731</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6374,8 +6374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9639300" y="17540288"/>
-          <a:ext cx="1238250" cy="314325"/>
+          <a:off x="7252447" y="16498141"/>
+          <a:ext cx="1094814" cy="247090"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6404,16 +6404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404532</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>4483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>185458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6422,8 +6422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8172450" y="16992600"/>
-          <a:ext cx="1428750" cy="371475"/>
+          <a:off x="5850591" y="16006483"/>
+          <a:ext cx="1419786" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6462,16 +6462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380440</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589991</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6480,8 +6480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181975" y="19059525"/>
-          <a:ext cx="1428750" cy="371475"/>
+          <a:off x="5826499" y="18364761"/>
+          <a:ext cx="1419786" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6520,16 +6520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>207308</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>70597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>416859</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>61072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6538,8 +6538,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8210550" y="18459450"/>
-          <a:ext cx="1428750" cy="371475"/>
+          <a:off x="5653367" y="17215597"/>
+          <a:ext cx="1419786" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6578,16 +6578,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>386602</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>176493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596153</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>166968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6596,8 +6596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8210550" y="17668875"/>
-          <a:ext cx="1428750" cy="371475"/>
+          <a:off x="5832661" y="16559493"/>
+          <a:ext cx="1419786" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6636,16 +6636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>287949</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>184273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400007</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>190221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404532</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>49802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6656,9 +6656,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6369295" y="15805273"/>
-          <a:ext cx="1784105" cy="1373065"/>
+        <a:xfrm flipV="1">
+          <a:off x="4635831" y="16192221"/>
+          <a:ext cx="1214760" cy="50081"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6687,16 +6687,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>287949</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>184273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400007</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>49802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>207308</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>65835</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6708,8 +6708,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6369295" y="15805273"/>
-          <a:ext cx="1822205" cy="2839915"/>
+          <a:off x="4635831" y="16242302"/>
+          <a:ext cx="1017536" cy="1159033"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6738,16 +6738,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>287949</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>184273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400007</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>49802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>386602</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171731</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6759,8 +6759,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6369295" y="15805273"/>
-          <a:ext cx="1822205" cy="2049340"/>
+          <a:off x="4635831" y="16242302"/>
+          <a:ext cx="1196830" cy="502929"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6789,16 +6789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>287949</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>184273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400007</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>49802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380440</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>71999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6810,8 +6810,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6369295" y="15805273"/>
-          <a:ext cx="1793630" cy="3439990"/>
+          <a:off x="4635831" y="16242302"/>
+          <a:ext cx="1190668" cy="2308197"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6840,16 +6840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44263</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>175932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>387163</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>147357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6858,8 +6858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12258675" y="16783050"/>
-          <a:ext cx="2171700" cy="352425"/>
+          <a:off x="9121028" y="15796932"/>
+          <a:ext cx="2158253" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6906,16 +6906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>583266</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44263</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>119903</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6927,8 +6927,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11591925" y="16959263"/>
-          <a:ext cx="666750" cy="395287"/>
+          <a:off x="9054913" y="15973145"/>
+          <a:ext cx="66115" cy="339258"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6957,16 +6957,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472889</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>81243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>72839</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6975,8 +6975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10858500" y="18145125"/>
-          <a:ext cx="1428750" cy="371475"/>
+          <a:off x="8339418" y="17035743"/>
+          <a:ext cx="1415303" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7015,16 +7015,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596153</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>472889</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76481</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7036,8 +7036,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9639300" y="17854613"/>
-          <a:ext cx="1219200" cy="476250"/>
+          <a:off x="7252447" y="16745231"/>
+          <a:ext cx="1086971" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7342,16 +7342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>497542</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>157442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7360,8 +7360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="19583400"/>
-          <a:ext cx="2171700" cy="352425"/>
+          <a:off x="6548718" y="19236017"/>
+          <a:ext cx="2158253" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7404,29 +7404,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>171730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>497542</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="462" name="Elbow Connector 3"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="456" idx="3"/>
+          <a:stCxn id="456" idx="0"/>
           <a:endCxn id="461" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6981825" y="19759613"/>
-          <a:ext cx="561975" cy="314325"/>
+          <a:off x="6222627" y="19412230"/>
+          <a:ext cx="326091" cy="475970"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7615,16 +7615,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>70037</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>412937</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>114861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7633,8 +7633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="21221700"/>
-          <a:ext cx="2171700" cy="352425"/>
+          <a:off x="6726331" y="21098436"/>
+          <a:ext cx="2158253" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7678,13 +7678,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>129149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>70037</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -7698,8 +7698,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6257925" y="21397913"/>
-          <a:ext cx="1295400" cy="119062"/>
+          <a:off x="6213102" y="21274649"/>
+          <a:ext cx="513229" cy="242326"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7946,15 +7946,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415739</xdr:colOff>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>153521</xdr:colOff>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7964,8 +7964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562850" y="22174200"/>
-          <a:ext cx="2171700" cy="352425"/>
+          <a:off x="6466915" y="22364700"/>
+          <a:ext cx="2158253" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8009,13 +8009,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415739</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -8029,8 +8029,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6219825" y="22350413"/>
-          <a:ext cx="1343025" cy="795337"/>
+          <a:off x="6175002" y="22540913"/>
+          <a:ext cx="291913" cy="604837"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11033,7 +11033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -11624,8 +11624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R124" sqref="R124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/stocks/银行.xlsx
+++ b/stocks/银行.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="兴业业务构成" sheetId="4" r:id="rId5"/>
     <sheet name="招行业务构成" sheetId="8" r:id="rId6"/>
     <sheet name="监管指标" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>兴业银行</t>
   </si>
@@ -252,6 +253,9 @@
   <si>
     <t>目标是“金融科技银行”</t>
   </si>
+  <si>
+    <t>跌幅</t>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -316,6 +320,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11624,7 +11631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R124" sqref="R124"/>
     </sheetView>
   </sheetViews>
@@ -11721,4 +11728,323 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="6"/>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>3334</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2*(1-B2)</f>
+        <v>3000.6</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2*(1-B2)</f>
+        <v>2700.54</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2*(1-B2)</f>
+        <v>2430.4859999999999</v>
+      </c>
+      <c r="G2" s="7">
+        <f>F2*(1-B2)</f>
+        <v>2187.4373999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>3334</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D4" si="0">C3*(1-B3)</f>
+        <v>2667.2000000000003</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E4" si="1">D3*(1-B3)</f>
+        <v>2133.7600000000002</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F4" si="2">E3*(1-B3)</f>
+        <v>1707.0080000000003</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G4" si="3">F3*(1-B3)</f>
+        <v>1365.6064000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>3334</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>2333.7999999999997</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="1"/>
+        <v>1633.6599999999996</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="2"/>
+        <v>1143.5619999999997</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="3"/>
+        <v>800.49339999999972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>3334</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D6" si="4">C5*(1-B5)</f>
+        <v>2000.3999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E6" si="5">D5*(1-B5)</f>
+        <v>1200.2399999999998</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F6" si="6">E5*(1-B5)</f>
+        <v>720.14399999999989</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G6" si="7">F5*(1-B5)</f>
+        <v>432.08639999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>3334</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="4"/>
+        <v>1667</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="5"/>
+        <v>833.5</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="6"/>
+        <v>416.75</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="7"/>
+        <v>208.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>16.04</v>
+      </c>
+      <c r="D8" s="8">
+        <f>C8*(1-B8)</f>
+        <v>14.436</v>
+      </c>
+      <c r="E8" s="8">
+        <f>D8*(1-B8)</f>
+        <v>12.9924</v>
+      </c>
+      <c r="F8" s="8">
+        <f>E8*(1-B8)</f>
+        <v>11.693160000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <f>F8*(1-B8)</f>
+        <v>10.523844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16.04</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D12" si="8">C9*(1-B9)</f>
+        <v>12.832000000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" ref="E9:E12" si="9">D9*(1-B9)</f>
+        <v>10.265600000000001</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:F12" si="10">E9*(1-B9)</f>
+        <v>8.2124800000000011</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" ref="G9:G12" si="11">F9*(1-B9)</f>
+        <v>6.5699840000000016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>16.04</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="8"/>
+        <v>11.227999999999998</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="9"/>
+        <v>7.8595999999999977</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="10"/>
+        <v>5.5017199999999979</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="11"/>
+        <v>3.8512039999999983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>16.04</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="8"/>
+        <v>9.6239999999999988</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="9"/>
+        <v>5.7743999999999991</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="10"/>
+        <v>3.4646399999999993</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="11"/>
+        <v>2.0787839999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>16.04</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="8"/>
+        <v>8.02</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="9"/>
+        <v>4.01</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="10"/>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="11"/>
+        <v>1.0024999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/stocks/银行.xlsx
+++ b/stocks/银行.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="兴业业务构成" sheetId="4" r:id="rId5"/>
     <sheet name="招行业务构成" sheetId="8" r:id="rId6"/>
     <sheet name="监管指标" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="部分银行利息收入结构" sheetId="9" r:id="rId8"/>
+    <sheet name="部分银行利息支出结构" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
   <si>
     <t>兴业银行</t>
   </si>
@@ -254,7 +255,148 @@
     <t>目标是“金融科技银行”</t>
   </si>
   <si>
-    <t>跌幅</t>
+    <t>Y2016</t>
+  </si>
+  <si>
+    <t>Y2015</t>
+  </si>
+  <si>
+    <t>Y2014</t>
+  </si>
+  <si>
+    <t>Y2013</t>
+  </si>
+  <si>
+    <t>Y2012</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>公司及个人贷款利息收入</t>
+  </si>
+  <si>
+    <t>贴现利息收入</t>
+  </si>
+  <si>
+    <t>投资利息收入</t>
+  </si>
+  <si>
+    <t>存放中央银行利息收入</t>
+  </si>
+  <si>
+    <t>拆出资金利息收入</t>
+  </si>
+  <si>
+    <t>买入返售利息收入</t>
+  </si>
+  <si>
+    <t>存放同业及其他金融机构利息收入</t>
+  </si>
+  <si>
+    <t>融资租赁利息收入</t>
+  </si>
+  <si>
+    <t>其他利息收入</t>
+  </si>
+  <si>
+    <t>企业贷款和垫款</t>
+  </si>
+  <si>
+    <t>个人贷款和垫款</t>
+  </si>
+  <si>
+    <t>票据贴现</t>
+  </si>
+  <si>
+    <t>存放中央银行</t>
+  </si>
+  <si>
+    <t>存放同业和其他金融机构款项</t>
+  </si>
+  <si>
+    <t>拆出资金</t>
+  </si>
+  <si>
+    <t>买入反售金融资产</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>民生银行</t>
+  </si>
+  <si>
+    <t>公司贷款和垫款</t>
+  </si>
+  <si>
+    <t>交易和银行账户投资</t>
+  </si>
+  <si>
+    <t>买入返售金融资产</t>
+  </si>
+  <si>
+    <t>存放中央银行款项</t>
+  </si>
+  <si>
+    <t>拆放同业及其他金融机构款项</t>
+  </si>
+  <si>
+    <t>长期应收款</t>
+  </si>
+  <si>
+    <t>存放同业及其他金融机构款项</t>
+  </si>
+  <si>
+    <t>非以公允价值计量且其变动计入当期损益的金融资产的利息收入</t>
+  </si>
+  <si>
+    <t>Y2017</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>向中央银行借款利息支出</t>
+  </si>
+  <si>
+    <t>存款利息支出</t>
+  </si>
+  <si>
+    <t>发行债券利息支出</t>
+  </si>
+  <si>
+    <t>同业及其他金融机构存放利息支出</t>
+  </si>
+  <si>
+    <t>拆入资金利息支出</t>
+  </si>
+  <si>
+    <t>卖出回购利息支出</t>
+  </si>
+  <si>
+    <t>其他利息支出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向中央银行借款 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">客户存款 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">债券利息支出 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">同业和其他金融机构存放款项 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">拆入资金 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">卖出回购金融资产款 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">非以公允价值计量且其变动计入当期损益的金融负债的利息支出 </t>
   </si>
 </sst>
 </file>
@@ -309,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,7 +464,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10023,160 +10164,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W33"/>
+  <dimension ref="B1:X34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
-    <col min="20" max="20" width="57.5703125" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
+    <col min="21" max="21" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="40.5" customHeight="1">
+    <row r="1" spans="2:24" ht="40.5" customHeight="1">
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="2"/>
       <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="2:23" ht="62.25" customHeight="1">
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="2:24" ht="62.25" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="3">
         <v>21464</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>3508</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>12713</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>7505</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>344</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>512</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>78</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>2362</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>1239</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>512</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>365</v>
       </c>
-      <c r="O2" s="3">
-        <f>D2+E2</f>
+      <c r="P2" s="3">
+        <f>E2+F2</f>
         <v>24972</v>
       </c>
-      <c r="P2" s="3">
-        <f>F2+G2</f>
+      <c r="Q2" s="3">
+        <f>G2+H2</f>
         <v>20218</v>
       </c>
-      <c r="Q2" s="1">
-        <f>I2/P2</f>
+      <c r="R2" s="1">
+        <f>J2/Q2</f>
         <v>2.5323968740726087E-2</v>
       </c>
-      <c r="R2" s="3">
-        <f>K2-L2</f>
+      <c r="S2" s="3">
+        <f>L2-M2</f>
         <v>1123</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:24" ht="62.25" customHeight="1">
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2017</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10189,13 +10338,15 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="U3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23">
-      <c r="D4" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="3"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -10208,10 +10359,13 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="D5" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="V4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -10224,10 +10378,10 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="2:23">
-      <c r="D6" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="2:24">
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10240,10 +10394,10 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="D7" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="2:24">
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -10256,10 +10410,10 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="2:23">
-      <c r="D8" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="2:24">
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -10272,10 +10426,10 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="2:23">
-      <c r="D9" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="2:24">
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -10288,10 +10442,10 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:23">
-      <c r="D10" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="2:24">
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -10304,10 +10458,10 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="2:23">
-      <c r="D11" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="2:24">
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -10320,10 +10474,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="2:23">
-      <c r="D12" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="2:24">
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -10336,10 +10490,10 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="2:23">
-      <c r="D13" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="2:24">
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -10352,10 +10506,10 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="2:23">
-      <c r="D14" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="2:24">
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -10368,10 +10522,10 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="2:23">
-      <c r="D15" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="2:24">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -10384,10 +10538,10 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="2:23">
-      <c r="D16" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="2:24">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -10400,10 +10554,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="4:18">
-      <c r="D17" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="5:19">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -10416,10 +10570,10 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="4:18">
-      <c r="D18" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="5:19">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -10432,10 +10586,10 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="4:18">
-      <c r="D19" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="5:19">
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -10448,10 +10602,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="4:18">
-      <c r="D20" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="5:19">
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -10464,10 +10618,10 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="4:18">
-      <c r="D21" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="5:19">
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -10480,10 +10634,10 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="4:18">
-      <c r="D22" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="5:19">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -10496,10 +10650,10 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="4:18">
-      <c r="D23" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="5:19">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -10512,10 +10666,10 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="4:18">
-      <c r="D24" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="5:19">
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -10528,10 +10682,10 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="4:18">
-      <c r="D25" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="5:19">
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -10544,10 +10698,10 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="4:18">
-      <c r="D26" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="5:19">
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -10560,10 +10714,10 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="4:18">
-      <c r="D27" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="5:19">
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -10576,10 +10730,10 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="4:18">
-      <c r="D28" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="5:19">
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -10592,10 +10746,10 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="4:18">
-      <c r="D29" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="5:19">
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -10608,10 +10762,10 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="4:18">
-      <c r="D30" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="5:19">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -10624,10 +10778,10 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="4:18">
-      <c r="D31" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="5:19">
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -10640,10 +10794,10 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="4:18">
-      <c r="D32" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="5:19">
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -10656,10 +10810,10 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="4:18">
-      <c r="D33" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="5:19">
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -10672,7 +10826,24 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="5:19">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="S34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11041,7 +11212,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11631,7 +11802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R124" sqref="R124"/>
     </sheetView>
   </sheetViews>
@@ -11732,319 +11903,1199 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="6"/>
-      <c r="C1">
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="6"/>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C2">
-        <v>3334</v>
-      </c>
-      <c r="D2" s="7">
-        <f>C2*(1-B2)</f>
-        <v>3000.6</v>
-      </c>
-      <c r="E2" s="7">
-        <f>D2*(1-B2)</f>
-        <v>2700.54</v>
-      </c>
-      <c r="F2" s="7">
-        <f>E2*(1-B2)</f>
-        <v>2430.4859999999999</v>
-      </c>
-      <c r="G2" s="7">
-        <f>F2*(1-B2)</f>
-        <v>2187.4373999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>3334</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D4" si="0">C3*(1-B3)</f>
-        <v>2667.2000000000003</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E4" si="1">D3*(1-B3)</f>
-        <v>2133.7600000000002</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F4" si="2">E3*(1-B3)</f>
-        <v>1707.0080000000003</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G4" si="3">F3*(1-B3)</f>
-        <v>1365.6064000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3">
+        <v>103610</v>
+      </c>
+      <c r="D3" s="3">
+        <v>92890</v>
+      </c>
+      <c r="E3" s="3">
+        <v>99797</v>
+      </c>
+      <c r="F3" s="3">
+        <v>91411</v>
+      </c>
+      <c r="G3" s="3">
+        <v>80938</v>
+      </c>
+      <c r="H3" s="3">
+        <v>71905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C4">
-        <v>3334</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>2333.7999999999997</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="1"/>
-        <v>1633.6599999999996</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="2"/>
-        <v>1143.5619999999997</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" si="3"/>
-        <v>800.49339999999972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1150</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2615</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1953</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1982</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1567</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C5">
-        <v>3334</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:D6" si="4">C5*(1-B5)</f>
-        <v>2000.3999999999999</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" ref="E5:E6" si="5">D5*(1-B5)</f>
-        <v>1200.2399999999998</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:F6" si="6">E5*(1-B5)</f>
-        <v>720.14399999999989</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:G6" si="7">F5*(1-B5)</f>
-        <v>432.08639999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3">
+        <v>128567</v>
+      </c>
+      <c r="D5" s="3">
+        <v>121147</v>
+      </c>
+      <c r="E5" s="3">
+        <v>108019</v>
+      </c>
+      <c r="F5" s="3">
+        <v>49814</v>
+      </c>
+      <c r="G5" s="3">
+        <v>34694</v>
+      </c>
+      <c r="H5" s="3">
+        <v>14888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C6">
-        <v>3334</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="4"/>
-        <v>1667</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="5"/>
-        <v>833.5</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="6"/>
-        <v>416.75</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="7"/>
-        <v>208.375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6813</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5898</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6497</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6205</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5831</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1337</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1132</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2095</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4645</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6998</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>16.04</v>
-      </c>
-      <c r="D8" s="8">
-        <f>C8*(1-B8)</f>
-        <v>14.436</v>
-      </c>
-      <c r="E8" s="8">
-        <f>D8*(1-B8)</f>
-        <v>12.9924</v>
-      </c>
-      <c r="F8" s="8">
-        <f>E8*(1-B8)</f>
-        <v>11.693160000000001</v>
-      </c>
-      <c r="G8" s="8">
-        <f>F8*(1-B8)</f>
-        <v>10.523844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2879</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4511</v>
+      </c>
+      <c r="E8" s="3">
+        <v>27382</v>
+      </c>
+      <c r="F8" s="3">
+        <v>56335</v>
+      </c>
+      <c r="G8" s="3">
+        <v>50231</v>
+      </c>
+      <c r="H8" s="3">
+        <v>40836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16.04</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D12" si="8">C9*(1-B9)</f>
-        <v>12.832000000000001</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" ref="E9:E12" si="9">D9*(1-B9)</f>
-        <v>10.265600000000001</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" ref="F9:F12" si="10">E9*(1-B9)</f>
-        <v>8.2124800000000011</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" ref="G9:G12" si="11">F9*(1-B9)</f>
-        <v>6.5699840000000016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1991</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2052</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3894</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4782</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6086</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C10" s="8">
-        <v>16.04</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="8"/>
-        <v>11.227999999999998</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="9"/>
-        <v>7.8595999999999977</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="10"/>
-        <v>5.5017199999999979</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="11"/>
-        <v>3.8512039999999983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5472</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4923</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5367</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4031</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3228</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C11" s="8">
-        <v>16.04</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="8"/>
-        <v>9.6239999999999988</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="9"/>
-        <v>5.7743999999999991</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="10"/>
-        <v>3.4646399999999993</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="11"/>
-        <v>2.0787839999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="8">
-        <v>16.04</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="8"/>
-        <v>8.02</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="9"/>
-        <v>4.01</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="10"/>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="11"/>
-        <v>1.0024999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3">
+        <v>825</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1111</v>
+      </c>
+      <c r="E11" s="3">
+        <v>968</v>
+      </c>
+      <c r="F11" s="3">
+        <v>209</v>
+      </c>
+      <c r="G11" s="3">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>64829</v>
+      </c>
+      <c r="E15" s="3">
+        <v>78033</v>
+      </c>
+      <c r="F15" s="3">
+        <v>82168</v>
+      </c>
+      <c r="G15" s="3">
+        <v>72765</v>
+      </c>
+      <c r="H15" s="3">
+        <v>68719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>82573</v>
+      </c>
+      <c r="E16" s="3">
+        <v>78076</v>
+      </c>
+      <c r="F16" s="3">
+        <v>58428</v>
+      </c>
+      <c r="G16" s="3">
+        <v>50120</v>
+      </c>
+      <c r="H16" s="3">
+        <v>41303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>3834</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4866</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5131</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4745</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>8170</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8598</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8318</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7296</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>875</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1775</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3799</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1256</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>4743</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4746</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6780</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4134</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>4736</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11709</v>
+      </c>
+      <c r="F21" s="3">
+        <v>20461</v>
+      </c>
+      <c r="G21" s="3">
+        <v>11558</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>45721</v>
+      </c>
+      <c r="E22" s="3">
+        <v>48173</v>
+      </c>
+      <c r="F22" s="3">
+        <v>37749</v>
+      </c>
+      <c r="G22" s="3">
+        <v>21621</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>215481</v>
+      </c>
+      <c r="E24" s="3">
+        <v>235976</v>
+      </c>
+      <c r="F24" s="3">
+        <v>222834</v>
+      </c>
+      <c r="G24" s="3">
+        <v>173495</v>
+      </c>
+      <c r="H24" s="3">
+        <v>150101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>70694</v>
+      </c>
+      <c r="E29" s="3">
+        <v>71040</v>
+      </c>
+      <c r="F29" s="3">
+        <v>72517</v>
+      </c>
+      <c r="G29" s="3">
+        <v>65765</v>
+      </c>
+      <c r="H29" s="3">
+        <v>67896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E30" s="3">
+        <v>46554</v>
+      </c>
+      <c r="F30" s="3">
+        <v>44407</v>
+      </c>
+      <c r="G30" s="3">
+        <v>39161</v>
+      </c>
+      <c r="H30" s="3">
+        <v>30306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>56669</v>
+      </c>
+      <c r="E31" s="3">
+        <v>34463</v>
+      </c>
+      <c r="F31" s="3">
+        <v>21449</v>
+      </c>
+      <c r="G31" s="3">
+        <v>11992</v>
+      </c>
+      <c r="H31" s="3">
+        <v>8690</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <v>8776</v>
+      </c>
+      <c r="E32" s="3">
+        <v>22335</v>
+      </c>
+      <c r="F32" s="3">
+        <v>34355</v>
+      </c>
+      <c r="G32" s="3">
+        <v>37548</v>
+      </c>
+      <c r="H32" s="3">
+        <v>34365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <v>6961</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6818</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6655</v>
+      </c>
+      <c r="G33" s="3">
+        <v>6567</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <v>6587</v>
+      </c>
+      <c r="E34" s="3">
+        <v>12015</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7164</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4485</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
+        <v>5543</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6157</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6962</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7189</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>4088</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5543</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9447</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7105</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3972</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1801</v>
+      </c>
+      <c r="F2">
+        <v>210</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3">
+        <v>54891</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42313</v>
+      </c>
+      <c r="E3" s="3">
+        <v>57422</v>
+      </c>
+      <c r="F3" s="3">
+        <v>52279</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44209</v>
+      </c>
+      <c r="H3" s="3">
+        <v>33662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3">
+        <v>28390</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22569</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12673</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5136</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3">
+        <v>64123</v>
+      </c>
+      <c r="D5" s="3">
+        <v>49291</v>
+      </c>
+      <c r="E5" s="3">
+        <v>57897</v>
+      </c>
+      <c r="F5" s="3">
+        <v>57565</v>
+      </c>
+      <c r="G5" s="3">
+        <v>47367</v>
+      </c>
+      <c r="H5" s="3">
+        <v>35997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6185</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3605</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3785</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3546</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2718</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3358</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2058</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2427</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4969</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5537</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="3">
+        <v>141</v>
+      </c>
+      <c r="D8">
+        <v>152</v>
+      </c>
+      <c r="E8">
+        <v>133</v>
+      </c>
+      <c r="F8">
+        <v>149</v>
+      </c>
+      <c r="G8">
+        <v>826</v>
+      </c>
+      <c r="H8">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>4793</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1696</v>
+      </c>
+      <c r="F12">
+        <v>142</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>60448</v>
+      </c>
+      <c r="F13" s="3">
+        <v>64102</v>
+      </c>
+      <c r="G13" s="3">
+        <v>48475</v>
+      </c>
+      <c r="H13" s="3">
+        <v>42308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>9925</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7150</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3921</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3281</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>12163</v>
+      </c>
+      <c r="E15" s="3">
+        <v>22168</v>
+      </c>
+      <c r="F15" s="3">
+        <v>33796</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14724</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>5032</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4778</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7236</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5451</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>2973</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2150</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1637</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2651</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>80886</v>
+      </c>
+      <c r="E18" s="3">
+        <v>98390</v>
+      </c>
+      <c r="F18" s="3">
+        <v>110834</v>
+      </c>
+      <c r="G18" s="3">
+        <v>74582</v>
+      </c>
+      <c r="H18" s="3">
+        <v>61727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stocks/银行.xlsx
+++ b/stocks/银行.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>兴业银行</t>
   </si>
@@ -398,6 +398,9 @@
   <si>
     <t xml:space="preserve">非以公允价值计量且其变动计入当期损益的金融负债的利息支出 </t>
   </si>
+  <si>
+    <t>兴业17年问题率减少35bp</t>
+  </si>
 </sst>
 </file>
 
@@ -11211,8 +11214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11220,6 +11223,7 @@
     <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="45.75" customHeight="1">
@@ -11255,13 +11259,49 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2430695</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2335880</v>
+      </c>
+      <c r="E2" s="3">
+        <f>56241+17520+11976+9158</f>
+        <v>94895</v>
+      </c>
+      <c r="F2" s="3">
+        <v>72448</v>
+      </c>
+      <c r="G2" s="3">
+        <v>28621</v>
+      </c>
+      <c r="H2" s="3">
+        <v>21529</v>
+      </c>
+      <c r="I2" s="3">
+        <v>81864</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J16" si="0">E2/C2</f>
+        <v>3.904027448939501E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K16" si="1">H2/C2</f>
+        <v>8.8571375676504051E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L16" si="2">I2/E2</f>
+        <v>0.86267980399388799</v>
+      </c>
+      <c r="N2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
@@ -11292,15 +11332,15 @@
         <v>72400</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J16" si="0">E3/C3</f>
+        <f t="shared" si="0"/>
         <v>4.2504086931435717E-2</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K16" si="1">H3/C3</f>
+        <f t="shared" si="1"/>
         <v>1.3847485335128378E-2</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L16" si="2">I3/E3</f>
+        <f t="shared" si="2"/>
         <v>0.8190045248868778</v>
       </c>
     </row>
@@ -12704,8 +12744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
